--- a/biology/Botanique/Myosotis/Myosotis.xlsx
+++ b/biology/Botanique/Myosotis/Myosotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myosotis est un genre de plantes herbacées de la famille des Boraginaceae. On en retrouve une centaine d'espèces dans les régions tempérées ou montagneuses à travers le monde.
 Certaines espèces et variétés sont utilisées pour fleurir les jardins. Elles se ressèment facilement et peuvent devenir envahissantes.
@@ -515,13 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom de genre Myosotis vient du grec μυοσωτίς / myosōtís μῦς, μυός / mys, myós, « rat, souris » et οὖς, ωτός / oûs, ōtós, « oreille », en référence aux feuilles arrondies et velues de ces plantes qui peuvent évoquer les oreilles de souris[1].
-Surnoms
-Selon une légende, un chevalier et sa dame se promenaient le long d'une rivière. Le chevalier voulut se pencher pour cueillir une fleur. Son armure étant trop lourde, le chevalier tomba à l'eau. Sachant sa fin inéluctable, avant de disparaître sous les eaux, le chevalier lança galamment la fleur vers sa dame en la priant « Ne m'oubliez pas ! » Cette symbolique est reprise dans le poème de la cantate Vergißmeinnicht.
-L' allemand conserve pieusement la prière du chevalier dans la dénomination de la fleur (das Vergissmeinnicht — le mot vient de l'ancien allemand vergiss mein nicht, on dit aujourd'hui vergiss mich nicht), et s'est propagé à travers l'Europe : en anglais (forget-me-not), en espagnol (nomeolvides), en italien (nontiscordardimé), en polonais (niezapominajki), en chinois (chinois simplifié : 勿忘草 ; pinyin : wùwàngwǒ) et dans beaucoup d'autres langues (danois, néerlandais (vergeet-mij-nietje), roumain, etc.).
-Parmi les noms communs, on trouve : « grémillet », « scorpione », « herbe d'amour », ou encore « oreille-de-souris ». Ce dernier nom est d'ailleurs le sens du mot myosotis en grec, et correspond donc à l'origine étymologique du nom.
-Mais le myosotis est surtout surnommé par des phrases poétiques amoureuses : « aimez-moi », « souvenez-vous-de-moi », « plus je vous vois, plus je vous aime », « pensez à moi » et le plus utilisé : « ne m'oubliez pas »[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Myosotis vient du grec μυοσωτίς / myosōtís μῦς, μυός / mys, myós, « rat, souris » et οὖς, ωτός / oûs, ōtós, « oreille », en référence aux feuilles arrondies et velues de ces plantes qui peuvent évoquer les oreilles de souris.
 </t>
         </is>
       </c>
@@ -547,13 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Nom</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identification
-Plante de 5 à 40 cm à poils courts, fleurs régulières bleues, parfois roses ou blanches en grappes, feuilles simples alternes[3].
+          <t>Surnoms</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une légende, un chevalier et sa dame se promenaient le long d'une rivière. Le chevalier voulut se pencher pour cueillir une fleur. Son armure étant trop lourde, le chevalier tomba à l'eau. Sachant sa fin inéluctable, avant de disparaître sous les eaux, le chevalier lança galamment la fleur vers sa dame en la priant « Ne m'oubliez pas ! » Cette symbolique est reprise dans le poème de la cantate Vergißmeinnicht.
+L' allemand conserve pieusement la prière du chevalier dans la dénomination de la fleur (das Vergissmeinnicht — le mot vient de l'ancien allemand vergiss mein nicht, on dit aujourd'hui vergiss mich nicht), et s'est propagé à travers l'Europe : en anglais (forget-me-not), en espagnol (nomeolvides), en italien (nontiscordardimé), en polonais (niezapominajki), en chinois (chinois simplifié : 勿忘草 ; pinyin : wùwàngwǒ) et dans beaucoup d'autres langues (danois, néerlandais (vergeet-mij-nietje), roumain, etc.).
+Parmi les noms communs, on trouve : « grémillet », « scorpione », « herbe d'amour », ou encore « oreille-de-souris ». Ce dernier nom est d'ailleurs le sens du mot myosotis en grec, et correspond donc à l'origine étymologique du nom.
+Mais le myosotis est surtout surnommé par des phrases poétiques amoureuses : « aimez-moi », « souvenez-vous-de-moi », « plus je vous vois, plus je vous aime », « pensez à moi » et le plus utilisé : « ne m'oubliez pas ».
 </t>
         </is>
       </c>
@@ -579,12 +599,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Floraison</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La période de floraison des myosotis va du printemps à l'été.
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante de 5 à 40 cm à poils courts, fleurs régulières bleues, parfois roses ou blanches en grappes, feuilles simples alternes.
 </t>
         </is>
       </c>
@@ -610,19 +636,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de floraison des myosotis va du printemps à l'été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flore européenne
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flore européenne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Myosotis alpestris, F. W. Schmidt – Myosotis des Alpes
 Myosotis arvensis, A. W. Hill – Myosotis des champs, intermédiaire
 Myosotis balbisiana, Alexis Jordan
 Myosotis ×bohemica, Karel Domin
 Myosotis ×cadevallii, Sennen
 Myosotis ×catalaunica Sennen
-Myosotis congesta Shuttlew. ex Albert[4] &amp; Reyn. (Joël Reynaud)
+Myosotis congesta Shuttlew. ex Albert &amp; Reyn. (Joël Reynaud)
 Myosotis corsicana (Fiori) Grau
 Myosotis decumbens Host – Myosotis étalé
 Myosotis discolor Pers. – Myosotis versicolore, à fleurs changeantes
@@ -647,7 +712,43 @@
 Myosotis stricta Link ex Roem. &amp; Schult. – Myosotis raide
 Myosotis ×suzae Domin
 Myosotis sylvatica  Hoffm. – Myosotis des forêts, des bois
-Autres espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Myosotis asiatica (Vesterg.) Schischkin et Sergievskaja
 Myosotis azorica H.C. Wats. ex Hook.
 Myosotis cameroonensis Cheek &amp; R.Becker
@@ -659,75 +760,187 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Myosotis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le papillon de nuit Callimorpha dominula (l'Écaille marbrée) se nourrit de myosotis[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Myosotis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le papillon de nuit Callimorpha dominula (l'Écaille marbrée) se nourrit de myosotis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, le myosotis symbolise le souvenir fidèle[6].
-Mythologie
-Myosotis est le nom d'une naïade de l'Antiquité.[réf. nécessaire]
-Commémorations
-En 1948, le myosotis fut adopté comme emblème maçonnique à la première conférence annuelle des  Grandes Loges unies d'Allemagne, des Maçons anciens francs et acceptés. La fleur, souvent représentée comme pictogramme, rappelle le souvenir de tous ceux qui ont souffert au nom de la franc-maçonnerie, spécialement durant la période nazie[7].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le myosotis symbolise le souvenir fidèle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mythologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myosotis est le nom d'une naïade de l'Antiquité.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Commémorations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1948, le myosotis fut adopté comme emblème maçonnique à la première conférence annuelle des  Grandes Loges unies d'Allemagne, des Maçons anciens francs et acceptés. La fleur, souvent représentée comme pictogramme, rappelle le souvenir de tous ceux qui ont souffert au nom de la franc-maçonnerie, spécialement durant la période nazie.
 Le myosotis est aussi devenu le symbole de la Société Alzheimer. Il symbolise la perte de mémoire, l'un des symptômes de la maladie d'Alzheimer, et nous invite à ne pas oublier les personnes atteintes de cette maladie et leurs aidants.[réf. nécessaire]
-Il est aussi le symbole de la Journée internationale des enfants disparus, fixée au 25 mai (proclamée en 1983 par le président des États-Unis d'Amérique). Depuis 2002, Child Focus, fondation belge pour enfants disparus et sexuellement exploités, relaye et organise, chaque année, cette journée. À cette occasion, en Belgique, des myosotis sous forme de broches ou d'autocollants, et des sachets de graines de cette petite fleur bleue sont distribués gratuitement à la population, grâce aux volontaires qui les déposent dans une multitude de petits commerces. Le but est d'encourager la population à penser à tous les enfants portés disparus dans le monde et répandre un message d'espoir et de solidarité envers les parents qui sont sans nouvelles de leur enfant[8].
-En 2015, les fleurs de myosotis ont été choisies pour célébrer le centenaire du génocide arménien parce qu'elles expriment « la notion du souvenir éternel »[9].
+Il est aussi le symbole de la Journée internationale des enfants disparus, fixée au 25 mai (proclamée en 1983 par le président des États-Unis d'Amérique). Depuis 2002, Child Focus, fondation belge pour enfants disparus et sexuellement exploités, relaye et organise, chaque année, cette journée. À cette occasion, en Belgique, des myosotis sous forme de broches ou d'autocollants, et des sachets de graines de cette petite fleur bleue sont distribués gratuitement à la population, grâce aux volontaires qui les déposent dans une multitude de petits commerces. Le but est d'encourager la population à penser à tous les enfants portés disparus dans le monde et répandre un message d'espoir et de solidarité envers les parents qui sont sans nouvelles de leur enfant.
+En 2015, les fleurs de myosotis ont été choisies pour célébrer le centenaire du génocide arménien parce qu'elles expriment « la notion du souvenir éternel ».
 Ces utilisations viennent du surnom du myosotis.
-Culture populaire
-Il est utilisé pour décrire les yeux du capitaine Crochet (dans Peter Pan de James Barrie)[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Myosotis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myosotis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Culture populaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé pour décrire les yeux du capitaine Crochet (dans Peter Pan de James Barrie).
 </t>
         </is>
       </c>
